--- a/src/test/resources/excel/template/multi.xlsx
+++ b/src/test/resources/excel/template/multi.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFC493AB-152A-4B56-AD65-5A0D740B6D67}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D886C2-4A8F-4646-B839-B30270091A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="複数シート出力テンプレート" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">複数シート出力テンプレート!$A$1:$G$24</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,7 +48,7 @@
             <charset val="128"/>
           </rPr>
           <t>jx:area(lastCell="G24")
-jx:each(items="appList" var="app" lastCell="G24" multisheet="appTitleList")</t>
+jx:each(items="inputEntity.appList" var="app" lastCell="G24" multisheet="app.title")</t>
         </r>
       </text>
     </comment>
@@ -890,17 +903,17 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
@@ -987,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1018,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
